--- a/data/pca/factorExposure/factorExposure_2015-09-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02425418180979578</v>
+        <v>0.02074197906110794</v>
       </c>
       <c r="C2">
-        <v>0.03477248459104502</v>
+        <v>-0.04421777130537227</v>
       </c>
       <c r="D2">
-        <v>-0.1104711296380168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1277931366260315</v>
+      </c>
+      <c r="E2">
+        <v>-0.04861940694357018</v>
+      </c>
+      <c r="F2">
+        <v>-0.03210254571684414</v>
+      </c>
+      <c r="G2">
+        <v>0.06292630638728805</v>
+      </c>
+      <c r="H2">
+        <v>0.08243752296341707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.006662414460282927</v>
+        <v>0.001031134773308305</v>
       </c>
       <c r="C3">
-        <v>0.04707982939572995</v>
+        <v>-0.03696678013045598</v>
       </c>
       <c r="D3">
-        <v>-0.06536540840571807</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.04831688838083748</v>
+      </c>
+      <c r="E3">
+        <v>-0.06728532493496009</v>
+      </c>
+      <c r="F3">
+        <v>-0.05851308879295185</v>
+      </c>
+      <c r="G3">
+        <v>0.1106380181271776</v>
+      </c>
+      <c r="H3">
+        <v>0.09322153348609809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05043561063989449</v>
+        <v>0.0440462403751397</v>
       </c>
       <c r="C4">
-        <v>0.06871707261818828</v>
+        <v>-0.08531925547066999</v>
       </c>
       <c r="D4">
-        <v>-0.1255064190942076</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1434795724389323</v>
+      </c>
+      <c r="E4">
+        <v>-0.05600079772968076</v>
+      </c>
+      <c r="F4">
+        <v>-0.05388119114437704</v>
+      </c>
+      <c r="G4">
+        <v>-0.05611605197781146</v>
+      </c>
+      <c r="H4">
+        <v>0.008937019574600098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03381143261861094</v>
+        <v>0.03404521517301968</v>
       </c>
       <c r="C6">
-        <v>0.02753034903817531</v>
+        <v>-0.03597566370454636</v>
       </c>
       <c r="D6">
-        <v>-0.1515838715340864</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1413667050955999</v>
+      </c>
+      <c r="E6">
+        <v>-0.01056440040951467</v>
+      </c>
+      <c r="F6">
+        <v>-0.0520735569882111</v>
+      </c>
+      <c r="G6">
+        <v>-0.009593511183682636</v>
+      </c>
+      <c r="H6">
+        <v>0.05114281601958073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01981122488013489</v>
+        <v>0.01648758026451453</v>
       </c>
       <c r="C7">
-        <v>0.03116620671447806</v>
+        <v>-0.03830576276677735</v>
       </c>
       <c r="D7">
-        <v>-0.109276041706403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09875306564210806</v>
+      </c>
+      <c r="E7">
+        <v>0.00178146955150388</v>
+      </c>
+      <c r="F7">
+        <v>-0.02948569600181337</v>
+      </c>
+      <c r="G7">
+        <v>0.01025278087539921</v>
+      </c>
+      <c r="H7">
+        <v>0.06726685365675433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01050499109723138</v>
+        <v>0.005635280841329525</v>
       </c>
       <c r="C8">
-        <v>0.0354750107142074</v>
+        <v>-0.03998799995348785</v>
       </c>
       <c r="D8">
-        <v>-0.06261375690636672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07631001348576968</v>
+      </c>
+      <c r="E8">
+        <v>-0.02579827112265963</v>
+      </c>
+      <c r="F8">
+        <v>-0.07269784461407072</v>
+      </c>
+      <c r="G8">
+        <v>0.04154705167320642</v>
+      </c>
+      <c r="H8">
+        <v>0.04769421181875999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04146464557266633</v>
+        <v>0.03512725086197433</v>
       </c>
       <c r="C9">
-        <v>0.06212203412123955</v>
+        <v>-0.07469407399168458</v>
       </c>
       <c r="D9">
-        <v>-0.1154152487380728</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1225706988314494</v>
+      </c>
+      <c r="E9">
+        <v>-0.03968053506588858</v>
+      </c>
+      <c r="F9">
+        <v>-0.03448661746374309</v>
+      </c>
+      <c r="G9">
+        <v>-0.03650992029177221</v>
+      </c>
+      <c r="H9">
+        <v>0.007577293941830945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1318914051747987</v>
+        <v>0.1759641644094801</v>
       </c>
       <c r="C10">
-        <v>-0.1824364758418693</v>
+        <v>0.1675594731093709</v>
       </c>
       <c r="D10">
-        <v>-0.0004461977493240573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.008314498123294942</v>
+      </c>
+      <c r="E10">
+        <v>-0.03217974846426495</v>
+      </c>
+      <c r="F10">
+        <v>-0.04109456417693652</v>
+      </c>
+      <c r="G10">
+        <v>-0.003917663455856458</v>
+      </c>
+      <c r="H10">
+        <v>-0.04758449633133868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03329255864132113</v>
+        <v>0.02768733900026489</v>
       </c>
       <c r="C11">
-        <v>0.04430119140316441</v>
+        <v>-0.0523543350518141</v>
       </c>
       <c r="D11">
-        <v>-0.05997262234426716</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05455810908471605</v>
+      </c>
+      <c r="E11">
+        <v>0.01521427791166776</v>
+      </c>
+      <c r="F11">
+        <v>0.004810040996573427</v>
+      </c>
+      <c r="G11">
+        <v>0.007348772806326113</v>
+      </c>
+      <c r="H11">
+        <v>0.03135403519425341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03730941359266304</v>
+        <v>0.03029018303692991</v>
       </c>
       <c r="C12">
-        <v>0.04698252579961197</v>
+        <v>-0.05371190939437205</v>
       </c>
       <c r="D12">
-        <v>-0.06284341775202233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05437165843067887</v>
+      </c>
+      <c r="E12">
+        <v>0.004010416647250562</v>
+      </c>
+      <c r="F12">
+        <v>0.009146851714313203</v>
+      </c>
+      <c r="G12">
+        <v>0.007677986975505777</v>
+      </c>
+      <c r="H12">
+        <v>0.03474333868187173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01033112645409602</v>
+        <v>0.01342942266632015</v>
       </c>
       <c r="C13">
-        <v>0.03666228404366251</v>
+        <v>-0.04633822821990997</v>
       </c>
       <c r="D13">
-        <v>-0.1374221065929689</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1573658809780791</v>
+      </c>
+      <c r="E13">
+        <v>-0.01603409408881257</v>
+      </c>
+      <c r="F13">
+        <v>-0.07354774129962202</v>
+      </c>
+      <c r="G13">
+        <v>0.02818120193852845</v>
+      </c>
+      <c r="H13">
+        <v>0.05146665241317137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.004958206856692936</v>
+        <v>0.006395562011123699</v>
       </c>
       <c r="C14">
-        <v>0.02362936227545735</v>
+        <v>-0.02807884769846322</v>
       </c>
       <c r="D14">
-        <v>-0.1014852280447013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1036217075605114</v>
+      </c>
+      <c r="E14">
+        <v>-0.02020113447541668</v>
+      </c>
+      <c r="F14">
+        <v>-0.02719226760102346</v>
+      </c>
+      <c r="G14">
+        <v>0.008290102524256965</v>
+      </c>
+      <c r="H14">
+        <v>0.08711009433358165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.003195629165946207</v>
+        <v>0.001331128447138606</v>
       </c>
       <c r="C15">
-        <v>0.005536298586522843</v>
+        <v>-0.01408168667715179</v>
       </c>
       <c r="D15">
-        <v>-0.009949600715779498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03955832901991191</v>
+      </c>
+      <c r="E15">
+        <v>-0.007988718946925688</v>
+      </c>
+      <c r="F15">
+        <v>-0.007564147791665457</v>
+      </c>
+      <c r="G15">
+        <v>0.003725506120262668</v>
+      </c>
+      <c r="H15">
+        <v>0.01941929274551448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03090395886893152</v>
+        <v>0.02621474300689265</v>
       </c>
       <c r="C16">
-        <v>0.04540564247795548</v>
+        <v>-0.05120011613247202</v>
       </c>
       <c r="D16">
-        <v>-0.06870512967532046</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06058556090980671</v>
+      </c>
+      <c r="E16">
+        <v>-0.003541648013402706</v>
+      </c>
+      <c r="F16">
+        <v>-0.003047401930374682</v>
+      </c>
+      <c r="G16">
+        <v>0.003179286409136518</v>
+      </c>
+      <c r="H16">
+        <v>0.04664793904263882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.009413057662507497</v>
+        <v>0.005240104979943515</v>
       </c>
       <c r="C19">
-        <v>0.03518269520844169</v>
+        <v>-0.03013276875038975</v>
       </c>
       <c r="D19">
-        <v>-0.1463433556345586</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.112140582601775</v>
+      </c>
+      <c r="E19">
+        <v>-0.05529355041384982</v>
+      </c>
+      <c r="F19">
+        <v>-0.01381376449850953</v>
+      </c>
+      <c r="G19">
+        <v>0.0151121469161851</v>
+      </c>
+      <c r="H19">
+        <v>0.0522649496346205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01415393848002562</v>
+        <v>0.01435309398863969</v>
       </c>
       <c r="C20">
-        <v>0.03529406246842309</v>
+        <v>-0.04017465908515087</v>
       </c>
       <c r="D20">
-        <v>-0.09284039583477048</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1058123070092341</v>
+      </c>
+      <c r="E20">
+        <v>-0.04176695389472056</v>
+      </c>
+      <c r="F20">
+        <v>-0.02811524088027311</v>
+      </c>
+      <c r="G20">
+        <v>-0.004767525895080302</v>
+      </c>
+      <c r="H20">
+        <v>0.05016424150348536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.009747008724045684</v>
+        <v>0.007728626762732551</v>
       </c>
       <c r="C21">
-        <v>0.03783180598287922</v>
+        <v>-0.04385058974109374</v>
       </c>
       <c r="D21">
-        <v>-0.1516606655788931</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1503168290619195</v>
+      </c>
+      <c r="E21">
+        <v>-0.07327135640810213</v>
+      </c>
+      <c r="F21">
+        <v>-0.06324898459555006</v>
+      </c>
+      <c r="G21">
+        <v>-0.01023222906570405</v>
+      </c>
+      <c r="H21">
+        <v>0.07603342545647195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-8.900413375517377e-06</v>
+        <v>0.007008251226190842</v>
       </c>
       <c r="C22">
-        <v>0.04827418373067786</v>
+        <v>-0.04966691347558411</v>
       </c>
       <c r="D22">
-        <v>-0.1271185861597425</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1838606435743878</v>
+      </c>
+      <c r="E22">
+        <v>-0.009606070221554575</v>
+      </c>
+      <c r="F22">
+        <v>-0.1255286953418997</v>
+      </c>
+      <c r="G22">
+        <v>0.113085350493491</v>
+      </c>
+      <c r="H22">
+        <v>-0.03599056446971472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.0001756256877911929</v>
+        <v>0.007100731331712968</v>
       </c>
       <c r="C23">
-        <v>0.04858727183104417</v>
+        <v>-0.05019841195253568</v>
       </c>
       <c r="D23">
-        <v>-0.1265444583654501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1829905660565236</v>
+      </c>
+      <c r="E23">
+        <v>-0.009887410955115245</v>
+      </c>
+      <c r="F23">
+        <v>-0.1255982327873687</v>
+      </c>
+      <c r="G23">
+        <v>0.1123522888405771</v>
+      </c>
+      <c r="H23">
+        <v>-0.03643993791147947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03688353925516252</v>
+        <v>0.02880346526777924</v>
       </c>
       <c r="C24">
-        <v>0.0582609046955973</v>
+        <v>-0.0643308993698663</v>
       </c>
       <c r="D24">
-        <v>-0.06762372205333204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06088039206143533</v>
+      </c>
+      <c r="E24">
+        <v>-0.001358487159883144</v>
+      </c>
+      <c r="F24">
+        <v>-0.001014800823021607</v>
+      </c>
+      <c r="G24">
+        <v>-0.00560464806234714</v>
+      </c>
+      <c r="H24">
+        <v>0.05650992598864359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04175004394058252</v>
+        <v>0.03364579530620751</v>
       </c>
       <c r="C25">
-        <v>0.05343817408362601</v>
+        <v>-0.06086403445113887</v>
       </c>
       <c r="D25">
-        <v>-0.06645596115393335</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05989050787650199</v>
+      </c>
+      <c r="E25">
+        <v>-0.00599074638259463</v>
+      </c>
+      <c r="F25">
+        <v>-0.003589640267370329</v>
+      </c>
+      <c r="G25">
+        <v>0.006825775755264084</v>
+      </c>
+      <c r="H25">
+        <v>0.02605830901525935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01346166318955187</v>
+        <v>0.01376782650567304</v>
       </c>
       <c r="C26">
-        <v>0.01402965708102677</v>
+        <v>-0.02244742825368986</v>
       </c>
       <c r="D26">
-        <v>-0.06825533618055576</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07268978317660073</v>
+      </c>
+      <c r="E26">
+        <v>-0.01693124314482268</v>
+      </c>
+      <c r="F26">
+        <v>-0.03141003807460352</v>
+      </c>
+      <c r="G26">
+        <v>0.005116138815761363</v>
+      </c>
+      <c r="H26">
+        <v>0.05301779757295587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1976706884411361</v>
+        <v>0.2547351321769545</v>
       </c>
       <c r="C28">
-        <v>-0.2486556878069177</v>
+        <v>0.2213765155268867</v>
       </c>
       <c r="D28">
-        <v>0.01410157118917858</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.008298768529094711</v>
+      </c>
+      <c r="E28">
+        <v>-0.05650748609416615</v>
+      </c>
+      <c r="F28">
+        <v>-0.02862769745939311</v>
+      </c>
+      <c r="G28">
+        <v>-0.02975118518325531</v>
+      </c>
+      <c r="H28">
+        <v>-0.06218645771203674</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.003027495386708398</v>
+        <v>0.004889999288147045</v>
       </c>
       <c r="C29">
-        <v>0.02227397248654198</v>
+        <v>-0.02706947795520502</v>
       </c>
       <c r="D29">
-        <v>-0.09218592336873482</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.1011911020263954</v>
+      </c>
+      <c r="E29">
+        <v>-0.007800588084278459</v>
+      </c>
+      <c r="F29">
+        <v>-0.04594132226002747</v>
+      </c>
+      <c r="G29">
+        <v>0.0006522706454821455</v>
+      </c>
+      <c r="H29">
+        <v>0.08343368558497648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03189706163539365</v>
+        <v>0.0337635887650497</v>
       </c>
       <c r="C30">
-        <v>0.06432670671237319</v>
+        <v>-0.07551916218089094</v>
       </c>
       <c r="D30">
-        <v>-0.1595726149133052</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1685290540794732</v>
+      </c>
+      <c r="E30">
+        <v>-0.01104748649307803</v>
+      </c>
+      <c r="F30">
+        <v>-0.04131358563294454</v>
+      </c>
+      <c r="G30">
+        <v>-0.01530885395113062</v>
+      </c>
+      <c r="H30">
+        <v>0.06125106357158747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05650869004174872</v>
+        <v>0.04167760775475168</v>
       </c>
       <c r="C31">
-        <v>0.07525384607018432</v>
+        <v>-0.08389606928292814</v>
       </c>
       <c r="D31">
-        <v>-0.05134238225625074</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04080055024256828</v>
+      </c>
+      <c r="E31">
+        <v>-0.0201869118355172</v>
+      </c>
+      <c r="F31">
+        <v>-0.03913501913375526</v>
+      </c>
+      <c r="G31">
+        <v>0.009348199281742482</v>
+      </c>
+      <c r="H31">
+        <v>0.0267678379311105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02084340675874474</v>
+        <v>0.02074534378449694</v>
       </c>
       <c r="C32">
-        <v>0.02256936587158744</v>
+        <v>-0.02781603518000759</v>
       </c>
       <c r="D32">
-        <v>-0.09085833911779233</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1175378745362761</v>
+      </c>
+      <c r="E32">
+        <v>-0.0486046451740864</v>
+      </c>
+      <c r="F32">
+        <v>-0.06322911159349559</v>
+      </c>
+      <c r="G32">
+        <v>0.00215467998839833</v>
+      </c>
+      <c r="H32">
+        <v>0.0305373204049997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02128786327509873</v>
+        <v>0.02135959509468651</v>
       </c>
       <c r="C33">
-        <v>0.04447709429645483</v>
+        <v>-0.05201064344997026</v>
       </c>
       <c r="D33">
-        <v>-0.140861129186858</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1358300703405381</v>
+      </c>
+      <c r="E33">
+        <v>-0.03358713317755922</v>
+      </c>
+      <c r="F33">
+        <v>-0.03592400975983184</v>
+      </c>
+      <c r="G33">
+        <v>-0.002400316533507948</v>
+      </c>
+      <c r="H33">
+        <v>0.05675721161177476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03432204416394884</v>
+        <v>0.02542029019679303</v>
       </c>
       <c r="C34">
-        <v>0.06483048343475944</v>
+        <v>-0.06676490890295857</v>
       </c>
       <c r="D34">
-        <v>-0.06542384525121321</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04950445730449525</v>
+      </c>
+      <c r="E34">
+        <v>0.01335839502296206</v>
+      </c>
+      <c r="F34">
+        <v>0.01566732947750979</v>
+      </c>
+      <c r="G34">
+        <v>0.01551669923674975</v>
+      </c>
+      <c r="H34">
+        <v>0.05069289312308401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001208995035601675</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.00182093393890519</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.009590117948135321</v>
+      </c>
+      <c r="E35">
+        <v>0.0004744201884935046</v>
+      </c>
+      <c r="F35">
+        <v>-0.001735667586918864</v>
+      </c>
+      <c r="G35">
+        <v>0.000272304658226725</v>
+      </c>
+      <c r="H35">
+        <v>0.003303362316714562</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01924909485746787</v>
+        <v>0.01887350743471358</v>
       </c>
       <c r="C36">
-        <v>0.008976256461348921</v>
+        <v>-0.01940357650347064</v>
       </c>
       <c r="D36">
-        <v>-0.09284127838369444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08626331232157802</v>
+      </c>
+      <c r="E36">
+        <v>-0.02224909692301635</v>
+      </c>
+      <c r="F36">
+        <v>-0.02300217544570756</v>
+      </c>
+      <c r="G36">
+        <v>-0.01430086945744914</v>
+      </c>
+      <c r="H36">
+        <v>0.04212201272812112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01590717570222608</v>
+        <v>0.02026135298325376</v>
       </c>
       <c r="C38">
-        <v>0.01617938687770597</v>
+        <v>-0.02010657515692512</v>
       </c>
       <c r="D38">
-        <v>-0.0771854056821696</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.07732047085309099</v>
+      </c>
+      <c r="E38">
+        <v>-0.03534810479562989</v>
+      </c>
+      <c r="F38">
+        <v>0.01044672490520614</v>
+      </c>
+      <c r="G38">
+        <v>0.01496473911949205</v>
+      </c>
+      <c r="H38">
+        <v>0.04167322185239952</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03749634656407849</v>
+        <v>0.03008744900881901</v>
       </c>
       <c r="C39">
-        <v>0.06203983519819161</v>
+        <v>-0.07575190812771179</v>
       </c>
       <c r="D39">
-        <v>-0.1051403839423124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1078372616726338</v>
+      </c>
+      <c r="E39">
+        <v>0.0005675629367222271</v>
+      </c>
+      <c r="F39">
+        <v>0.007986075072972259</v>
+      </c>
+      <c r="G39">
+        <v>-0.01492897381573036</v>
+      </c>
+      <c r="H39">
+        <v>0.08968932287824344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01602999283021353</v>
+        <v>0.01309763010058805</v>
       </c>
       <c r="C40">
-        <v>0.04270306107850216</v>
+        <v>-0.03999468502652325</v>
       </c>
       <c r="D40">
-        <v>-0.08912389024347991</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.09401705718660848</v>
+      </c>
+      <c r="E40">
+        <v>-0.0366535543596563</v>
+      </c>
+      <c r="F40">
+        <v>-0.1081586481411495</v>
+      </c>
+      <c r="G40">
+        <v>0.1455386569435179</v>
+      </c>
+      <c r="H40">
+        <v>0.1386288458245328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02995765615822863</v>
+        <v>0.02722782222760909</v>
       </c>
       <c r="C41">
-        <v>0.006474664780871425</v>
+        <v>-0.01523781338411188</v>
       </c>
       <c r="D41">
-        <v>-0.06873504559765503</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05004975461203442</v>
+      </c>
+      <c r="E41">
+        <v>-0.047665427287352</v>
+      </c>
+      <c r="F41">
+        <v>-0.0155005278736739</v>
+      </c>
+      <c r="G41">
+        <v>0.02168576785355069</v>
+      </c>
+      <c r="H41">
+        <v>0.04534642932834456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.02493360353017481</v>
+        <v>0.02080220745478515</v>
       </c>
       <c r="C43">
-        <v>0.01638656114024506</v>
+        <v>-0.02240957200169889</v>
       </c>
       <c r="D43">
-        <v>-0.1041803675159138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.07882714311563685</v>
+      </c>
+      <c r="E43">
+        <v>-0.02714913648262045</v>
+      </c>
+      <c r="F43">
+        <v>-0.009285650532773859</v>
+      </c>
+      <c r="G43">
+        <v>0.01427160473842003</v>
+      </c>
+      <c r="H43">
+        <v>0.05647150398149843</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01465224156480866</v>
+        <v>0.01700687012061063</v>
       </c>
       <c r="C44">
-        <v>0.04190302938133907</v>
+        <v>-0.04424095973017445</v>
       </c>
       <c r="D44">
-        <v>-0.09345334797648845</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1108786970785919</v>
+      </c>
+      <c r="E44">
+        <v>-0.03509405247170743</v>
+      </c>
+      <c r="F44">
+        <v>-0.02714005814745245</v>
+      </c>
+      <c r="G44">
+        <v>-0.004172675651349283</v>
+      </c>
+      <c r="H44">
+        <v>0.04122537553596004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01571179395422336</v>
+        <v>0.01165058162185169</v>
       </c>
       <c r="C46">
-        <v>0.02681361998881604</v>
+        <v>-0.03590451290128056</v>
       </c>
       <c r="D46">
-        <v>-0.09975564467549586</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09785812117535089</v>
+      </c>
+      <c r="E46">
+        <v>-0.0213126054551942</v>
+      </c>
+      <c r="F46">
+        <v>-0.02416308170435063</v>
+      </c>
+      <c r="G46">
+        <v>-0.008652789821470021</v>
+      </c>
+      <c r="H46">
+        <v>0.08426300702027772</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.08952065658268203</v>
+        <v>0.07082216137423387</v>
       </c>
       <c r="C47">
-        <v>0.09013631656525947</v>
+        <v>-0.1040749190619511</v>
       </c>
       <c r="D47">
-        <v>-0.02547628246234204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02332741996682648</v>
+      </c>
+      <c r="E47">
+        <v>-0.02769298858368539</v>
+      </c>
+      <c r="F47">
+        <v>-0.02568073272624206</v>
+      </c>
+      <c r="G47">
+        <v>0.01492364351090048</v>
+      </c>
+      <c r="H47">
+        <v>-0.04309078471175639</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01227023459442708</v>
+        <v>0.01374284607857587</v>
       </c>
       <c r="C48">
-        <v>0.02050903597765039</v>
+        <v>-0.02579408482668499</v>
       </c>
       <c r="D48">
-        <v>-0.07893222099860717</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.08215185537573333</v>
+      </c>
+      <c r="E48">
+        <v>-0.05195305032765719</v>
+      </c>
+      <c r="F48">
+        <v>-0.03058661380904953</v>
+      </c>
+      <c r="G48">
+        <v>-0.01207988540908907</v>
+      </c>
+      <c r="H48">
+        <v>0.05996080631931443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.05106637638634429</v>
+        <v>0.03839511863994706</v>
       </c>
       <c r="C50">
-        <v>0.06294005147540016</v>
+        <v>-0.07325539740130024</v>
       </c>
       <c r="D50">
-        <v>-0.05741188266905692</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05143404303515432</v>
+      </c>
+      <c r="E50">
+        <v>-0.02495066657943263</v>
+      </c>
+      <c r="F50">
+        <v>-0.04106463989656352</v>
+      </c>
+      <c r="G50">
+        <v>0.03503589704313079</v>
+      </c>
+      <c r="H50">
+        <v>0.01965787417192209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01255045061115445</v>
+        <v>0.01050736986065056</v>
       </c>
       <c r="C51">
-        <v>0.0166309535737142</v>
+        <v>-0.02351763341794605</v>
       </c>
       <c r="D51">
-        <v>-0.08881364716136141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09297297934058217</v>
+      </c>
+      <c r="E51">
+        <v>0.004238841600662816</v>
+      </c>
+      <c r="F51">
+        <v>-0.009876678515570487</v>
+      </c>
+      <c r="G51">
+        <v>-0.01640179490921078</v>
+      </c>
+      <c r="H51">
+        <v>0.07220449441431065</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1046229354917562</v>
+        <v>0.09083823453040926</v>
       </c>
       <c r="C53">
-        <v>0.106857726329646</v>
+        <v>-0.1231231935445572</v>
       </c>
       <c r="D53">
-        <v>0.02026756379942471</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01167887313878854</v>
+      </c>
+      <c r="E53">
+        <v>-0.07319660120792457</v>
+      </c>
+      <c r="F53">
+        <v>-0.08423604215299951</v>
+      </c>
+      <c r="G53">
+        <v>-0.002514508740892974</v>
+      </c>
+      <c r="H53">
+        <v>-0.0147573011250458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02006366122783528</v>
+        <v>0.01802661261805141</v>
       </c>
       <c r="C54">
-        <v>0.02980765739169732</v>
+        <v>-0.03787840179322101</v>
       </c>
       <c r="D54">
-        <v>-0.105906586529812</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.09515584823503288</v>
+      </c>
+      <c r="E54">
+        <v>-0.0337829223702782</v>
+      </c>
+      <c r="F54">
+        <v>-0.01745503181373415</v>
+      </c>
+      <c r="G54">
+        <v>0.02853814154820963</v>
+      </c>
+      <c r="H54">
+        <v>0.07554740194439326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09647928459413098</v>
+        <v>0.08129053932968092</v>
       </c>
       <c r="C55">
-        <v>0.08226879332541766</v>
+        <v>-0.09940144038185525</v>
       </c>
       <c r="D55">
-        <v>0.03076961524932294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02434092929587345</v>
+      </c>
+      <c r="E55">
+        <v>-0.02734131429629616</v>
+      </c>
+      <c r="F55">
+        <v>-0.06673706208449509</v>
+      </c>
+      <c r="G55">
+        <v>0.0242282321096538</v>
+      </c>
+      <c r="H55">
+        <v>-0.009660463968224689</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1355000354833932</v>
+        <v>0.1137847759003354</v>
       </c>
       <c r="C56">
-        <v>0.1161990938431608</v>
+        <v>-0.1466336280965487</v>
       </c>
       <c r="D56">
-        <v>0.02813324177111058</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02625094177630838</v>
+      </c>
+      <c r="E56">
+        <v>-0.04748709188410806</v>
+      </c>
+      <c r="F56">
+        <v>-0.057023494262764</v>
+      </c>
+      <c r="G56">
+        <v>0.03556438121923935</v>
+      </c>
+      <c r="H56">
+        <v>-0.03363149687961698</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004720964506304025</v>
+        <v>0.005657400286803043</v>
       </c>
       <c r="C58">
-        <v>0.03833416779561033</v>
+        <v>-0.05037056114751633</v>
       </c>
       <c r="D58">
-        <v>-0.207488252380995</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2705405819277187</v>
+      </c>
+      <c r="E58">
+        <v>-0.09567494989650163</v>
+      </c>
+      <c r="F58">
+        <v>-0.1169769655298986</v>
+      </c>
+      <c r="G58">
+        <v>0.06434114113492713</v>
+      </c>
+      <c r="H58">
+        <v>-0.03103674857778974</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.155609577908884</v>
+        <v>0.1973690768686209</v>
       </c>
       <c r="C59">
-        <v>-0.1661632572771629</v>
+        <v>0.1407521368666464</v>
       </c>
       <c r="D59">
-        <v>-0.05265409106726945</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06782028529926146</v>
+      </c>
+      <c r="E59">
+        <v>-0.04318581473110279</v>
+      </c>
+      <c r="F59">
+        <v>0.01703874020042566</v>
+      </c>
+      <c r="G59">
+        <v>-0.01101294771395461</v>
+      </c>
+      <c r="H59">
+        <v>-0.02488514941322661</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2300368334217124</v>
+        <v>0.2087305817262307</v>
       </c>
       <c r="C60">
-        <v>0.08491007414261698</v>
+        <v>-0.1275749965945591</v>
       </c>
       <c r="D60">
-        <v>-0.1840695837489594</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1226516322758987</v>
+      </c>
+      <c r="E60">
+        <v>0.3286572881779488</v>
+      </c>
+      <c r="F60">
+        <v>0.1060015283992985</v>
+      </c>
+      <c r="G60">
+        <v>-0.03466998774951106</v>
+      </c>
+      <c r="H60">
+        <v>-0.1945024655445832</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04301852730304611</v>
+        <v>0.03464172963434932</v>
       </c>
       <c r="C61">
-        <v>0.05745900595428134</v>
+        <v>-0.06870410569667525</v>
       </c>
       <c r="D61">
-        <v>-0.1136527467641108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09702887294856641</v>
+      </c>
+      <c r="E61">
+        <v>0.004857572322813271</v>
+      </c>
+      <c r="F61">
+        <v>0.005903431168246784</v>
+      </c>
+      <c r="G61">
+        <v>-0.007607622098422227</v>
+      </c>
+      <c r="H61">
+        <v>0.04878160691389477</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01415013738555644</v>
+        <v>0.01302183152980816</v>
       </c>
       <c r="C63">
-        <v>0.02507235913066679</v>
+        <v>-0.03503389081644037</v>
       </c>
       <c r="D63">
-        <v>-0.08298852679247669</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07738063592635708</v>
+      </c>
+      <c r="E63">
+        <v>-0.00581466816124174</v>
+      </c>
+      <c r="F63">
+        <v>-0.02449912566171376</v>
+      </c>
+      <c r="G63">
+        <v>-0.006259304522319181</v>
+      </c>
+      <c r="H63">
+        <v>0.04922083352204006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05582816774350622</v>
+        <v>0.04319386711310211</v>
       </c>
       <c r="C64">
-        <v>0.0778244462410355</v>
+        <v>-0.08473969638384439</v>
       </c>
       <c r="D64">
-        <v>-0.04869106591085361</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05196590159483964</v>
+      </c>
+      <c r="E64">
+        <v>-0.01652281507875106</v>
+      </c>
+      <c r="F64">
+        <v>-0.00304333297349315</v>
+      </c>
+      <c r="G64">
+        <v>-0.08446146084194583</v>
+      </c>
+      <c r="H64">
+        <v>0.05577363242476593</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03628661211335579</v>
+        <v>0.03354407790994311</v>
       </c>
       <c r="C65">
-        <v>0.02364277481507754</v>
+        <v>-0.0356604275495925</v>
       </c>
       <c r="D65">
-        <v>-0.1236990547306246</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.114499999811908</v>
+      </c>
+      <c r="E65">
+        <v>0.008446443225996261</v>
+      </c>
+      <c r="F65">
+        <v>-0.02662759737452695</v>
+      </c>
+      <c r="G65">
+        <v>0.009053570722221595</v>
+      </c>
+      <c r="H65">
+        <v>0.01901919310528365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04075653564645085</v>
+        <v>0.03364932133434764</v>
       </c>
       <c r="C66">
-        <v>0.06929519288524191</v>
+        <v>-0.08623171562707899</v>
       </c>
       <c r="D66">
-        <v>-0.1192967473858936</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1321312165664259</v>
+      </c>
+      <c r="E66">
+        <v>-0.003476672170176942</v>
+      </c>
+      <c r="F66">
+        <v>0.0007634121320716126</v>
+      </c>
+      <c r="G66">
+        <v>0.003371011123220558</v>
+      </c>
+      <c r="H66">
+        <v>0.05266395315488603</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03705265373305341</v>
+        <v>0.03603640386487536</v>
       </c>
       <c r="C67">
-        <v>0.02240841983782755</v>
+        <v>-0.02882492943851204</v>
       </c>
       <c r="D67">
-        <v>-0.040607979561143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03187242301020592</v>
+      </c>
+      <c r="E67">
+        <v>-0.0110061233129387</v>
+      </c>
+      <c r="F67">
+        <v>0.02489296776673392</v>
+      </c>
+      <c r="G67">
+        <v>0.01566879177001987</v>
+      </c>
+      <c r="H67">
+        <v>0.04501797457542418</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1916892911807481</v>
+        <v>0.2300551783994972</v>
       </c>
       <c r="C68">
-        <v>-0.1999441543307384</v>
+        <v>0.1645150005072047</v>
       </c>
       <c r="D68">
-        <v>-0.02512211387318734</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02987847420383392</v>
+      </c>
+      <c r="E68">
+        <v>-0.01303125288829495</v>
+      </c>
+      <c r="F68">
+        <v>-0.03834920510089546</v>
+      </c>
+      <c r="G68">
+        <v>0.02537387279050848</v>
+      </c>
+      <c r="H68">
+        <v>-0.007568701761907083</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08332859075591899</v>
+        <v>0.06376052891478337</v>
       </c>
       <c r="C69">
-        <v>0.1056799812577869</v>
+        <v>-0.1109277609452737</v>
       </c>
       <c r="D69">
-        <v>-0.05775217555969756</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.03819148291868497</v>
+      </c>
+      <c r="E69">
+        <v>-0.01472899358716105</v>
+      </c>
+      <c r="F69">
+        <v>-0.01266324589810342</v>
+      </c>
+      <c r="G69">
+        <v>0.01503451741334048</v>
+      </c>
+      <c r="H69">
+        <v>-0.01057217534568408</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1748706296578317</v>
+        <v>0.2145452118443799</v>
       </c>
       <c r="C71">
-        <v>-0.2053166082049883</v>
+        <v>0.1730094542360402</v>
       </c>
       <c r="D71">
-        <v>-0.01414324921902855</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02584353144664829</v>
+      </c>
+      <c r="E71">
+        <v>-0.03744427768008492</v>
+      </c>
+      <c r="F71">
+        <v>-0.06099335869480338</v>
+      </c>
+      <c r="G71">
+        <v>0.04435573305240949</v>
+      </c>
+      <c r="H71">
+        <v>-0.009524380500585369</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1078705754677141</v>
+        <v>0.09351221255909725</v>
       </c>
       <c r="C72">
-        <v>0.06505102879105817</v>
+        <v>-0.09151811795113751</v>
       </c>
       <c r="D72">
-        <v>-0.08215408545395268</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.08065095689808531</v>
+      </c>
+      <c r="E72">
+        <v>0.06596666327147276</v>
+      </c>
+      <c r="F72">
+        <v>-0.03477137593762816</v>
+      </c>
+      <c r="G72">
+        <v>-0.01042561370945429</v>
+      </c>
+      <c r="H72">
+        <v>0.02462281196371185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2184688794299905</v>
+        <v>0.195362121977271</v>
       </c>
       <c r="C73">
-        <v>0.04958828470902949</v>
+        <v>-0.1062787489905858</v>
       </c>
       <c r="D73">
-        <v>-0.3060158261565413</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1714500756332455</v>
+      </c>
+      <c r="E73">
+        <v>0.5833505960256221</v>
+      </c>
+      <c r="F73">
+        <v>0.186197123976296</v>
+      </c>
+      <c r="G73">
+        <v>-0.09221449723846908</v>
+      </c>
+      <c r="H73">
+        <v>-0.2263682888731077</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1086961310278905</v>
+        <v>0.08944259157201288</v>
       </c>
       <c r="C74">
-        <v>0.08757365125815675</v>
+        <v>-0.1077156470186175</v>
       </c>
       <c r="D74">
-        <v>0.04176823399669791</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03977528728190592</v>
+      </c>
+      <c r="E74">
+        <v>-0.02790497938161223</v>
+      </c>
+      <c r="F74">
+        <v>-0.07444725973279274</v>
+      </c>
+      <c r="G74">
+        <v>-0.01082465330899383</v>
+      </c>
+      <c r="H74">
+        <v>-0.0397748795405692</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2551753918401131</v>
+        <v>0.2129282655936794</v>
       </c>
       <c r="C75">
-        <v>0.1625075726156033</v>
+        <v>-0.2042087346837402</v>
       </c>
       <c r="D75">
-        <v>0.1249760182104809</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1420459956632992</v>
+      </c>
+      <c r="E75">
+        <v>-0.07990727150362757</v>
+      </c>
+      <c r="F75">
+        <v>-0.02145723022958662</v>
+      </c>
+      <c r="G75">
+        <v>0.06480559174486995</v>
+      </c>
+      <c r="H75">
+        <v>-0.05922975472857949</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1468542024281142</v>
+        <v>0.1201663359851613</v>
       </c>
       <c r="C76">
-        <v>0.1134891893485128</v>
+        <v>-0.1390984538668669</v>
       </c>
       <c r="D76">
-        <v>0.033047093351051</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.03566312918401338</v>
+      </c>
+      <c r="E76">
+        <v>-0.07698174618722395</v>
+      </c>
+      <c r="F76">
+        <v>-0.04041197991950329</v>
+      </c>
+      <c r="G76">
+        <v>0.01917097803613444</v>
+      </c>
+      <c r="H76">
+        <v>0.03055847781999806</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.04062085209693787</v>
+        <v>0.04471589961850515</v>
       </c>
       <c r="C77">
-        <v>0.07277016936488648</v>
+        <v>-0.08324043382189435</v>
       </c>
       <c r="D77">
-        <v>-0.02902916840282973</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1393393226222749</v>
+      </c>
+      <c r="E77">
+        <v>-0.4775360508866145</v>
+      </c>
+      <c r="F77">
+        <v>0.3539980948082677</v>
+      </c>
+      <c r="G77">
+        <v>0.2672952421459916</v>
+      </c>
+      <c r="H77">
+        <v>-0.6485285931957387</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04124562314821088</v>
+        <v>0.0397074754230956</v>
       </c>
       <c r="C78">
-        <v>0.06278155274673225</v>
+        <v>-0.07360303113734301</v>
       </c>
       <c r="D78">
-        <v>-0.1360665082675956</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1401372256767574</v>
+      </c>
+      <c r="E78">
+        <v>-0.009118777610001544</v>
+      </c>
+      <c r="F78">
+        <v>-0.04085445165126428</v>
+      </c>
+      <c r="G78">
+        <v>-0.003569703198250373</v>
+      </c>
+      <c r="H78">
+        <v>-0.02088347767180913</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.05438186809218434</v>
+        <v>0.05049963482573755</v>
       </c>
       <c r="C79">
-        <v>0.1046962424400948</v>
+        <v>-0.1148737417705451</v>
       </c>
       <c r="D79">
-        <v>0.1621570308304918</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0763767307393481</v>
+      </c>
+      <c r="E79">
+        <v>-0.1797165057443947</v>
+      </c>
+      <c r="F79">
+        <v>-0.416455945134173</v>
+      </c>
+      <c r="G79">
+        <v>-0.7346961743151283</v>
+      </c>
+      <c r="H79">
+        <v>-0.2944731666784248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.0206842938273576</v>
+        <v>0.01777033022066183</v>
       </c>
       <c r="C80">
-        <v>0.04905330971121608</v>
+        <v>-0.05024612517002963</v>
       </c>
       <c r="D80">
-        <v>-0.02534085525209389</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02238766497698928</v>
+      </c>
+      <c r="E80">
+        <v>-0.009320380538122421</v>
+      </c>
+      <c r="F80">
+        <v>-0.01646414462510439</v>
+      </c>
+      <c r="G80">
+        <v>0.01188064762263631</v>
+      </c>
+      <c r="H80">
+        <v>0.07283676320845744</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1320393829844052</v>
+        <v>0.103659674087964</v>
       </c>
       <c r="C81">
-        <v>0.1184356241632482</v>
+        <v>-0.1383661842113879</v>
       </c>
       <c r="D81">
-        <v>0.1100484050039032</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.103573822352286</v>
+      </c>
+      <c r="E81">
+        <v>-0.0970533989428725</v>
+      </c>
+      <c r="F81">
+        <v>-0.06474566006120695</v>
+      </c>
+      <c r="G81">
+        <v>0.02134176256531079</v>
+      </c>
+      <c r="H81">
+        <v>0.0172495796213787</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2674631151364302</v>
+        <v>0.2041132264155777</v>
       </c>
       <c r="C82">
-        <v>0.2445940816263382</v>
+        <v>-0.2657734981105201</v>
       </c>
       <c r="D82">
-        <v>0.2297878249909237</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2340823659367297</v>
+      </c>
+      <c r="E82">
+        <v>-0.002783151630216033</v>
+      </c>
+      <c r="F82">
+        <v>0.03655958043701163</v>
+      </c>
+      <c r="G82">
+        <v>0.0828003803946597</v>
+      </c>
+      <c r="H82">
+        <v>0.008386125965465169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01789228725446411</v>
+        <v>0.01003073752923882</v>
       </c>
       <c r="C83">
-        <v>0.05985603790510982</v>
+        <v>-0.0550893281754876</v>
       </c>
       <c r="D83">
-        <v>-0.04511019430753693</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05207736053516028</v>
+      </c>
+      <c r="E83">
+        <v>-0.06002424798616732</v>
+      </c>
+      <c r="F83">
+        <v>0.06841680849134635</v>
+      </c>
+      <c r="G83">
+        <v>-0.002661773912543525</v>
+      </c>
+      <c r="H83">
+        <v>-0.03050144166579256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.001190123502766016</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.005764127953139649</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01908262679555257</v>
+      </c>
+      <c r="E84">
+        <v>-0.01388085263925981</v>
+      </c>
+      <c r="F84">
+        <v>-0.02123094559563536</v>
+      </c>
+      <c r="G84">
+        <v>0.005786584986402982</v>
+      </c>
+      <c r="H84">
+        <v>0.02112540554108645</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1680491421860134</v>
+        <v>0.1364061230555181</v>
       </c>
       <c r="C85">
-        <v>0.1270248462940173</v>
+        <v>-0.1605088406907851</v>
       </c>
       <c r="D85">
-        <v>0.0627783448845368</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08644489974389016</v>
+      </c>
+      <c r="E85">
+        <v>-0.0110515161486183</v>
+      </c>
+      <c r="F85">
+        <v>-0.05651090646266461</v>
+      </c>
+      <c r="G85">
+        <v>-0.05453409589472556</v>
+      </c>
+      <c r="H85">
+        <v>-0.002591394157832477</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02168133973274093</v>
+        <v>0.01921729806232261</v>
       </c>
       <c r="C86">
-        <v>0.03934160148245287</v>
+        <v>-0.03906529625657392</v>
       </c>
       <c r="D86">
-        <v>-0.1179325027616072</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1196004426661404</v>
+      </c>
+      <c r="E86">
+        <v>-0.02821923550847241</v>
+      </c>
+      <c r="F86">
+        <v>0.009795793275207932</v>
+      </c>
+      <c r="G86">
+        <v>0.05002544168297665</v>
+      </c>
+      <c r="H86">
+        <v>-0.04514027646609256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02602646387254984</v>
+        <v>0.03176196896709446</v>
       </c>
       <c r="C87">
-        <v>0.02327932293186808</v>
+        <v>-0.03517832022292718</v>
       </c>
       <c r="D87">
-        <v>-0.1103259904585472</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1381104072891702</v>
+      </c>
+      <c r="E87">
+        <v>-0.05707361837409365</v>
+      </c>
+      <c r="F87">
+        <v>-0.032775203538019</v>
+      </c>
+      <c r="G87">
+        <v>0.0003459218107238944</v>
+      </c>
+      <c r="H87">
+        <v>0.0474820909584117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.07230323512793138</v>
+        <v>0.05889863932426955</v>
       </c>
       <c r="C88">
-        <v>0.0473022869724737</v>
+        <v>-0.06218375399138639</v>
       </c>
       <c r="D88">
-        <v>-0.04276110807815005</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01700984470106605</v>
+      </c>
+      <c r="E88">
+        <v>-0.00371669545934502</v>
+      </c>
+      <c r="F88">
+        <v>-0.02145384931748121</v>
+      </c>
+      <c r="G88">
+        <v>-0.01814970209348892</v>
+      </c>
+      <c r="H88">
+        <v>0.05244438787404063</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2699058885712075</v>
+        <v>0.3275243057524125</v>
       </c>
       <c r="C89">
-        <v>-0.3754060863477903</v>
+        <v>0.3062994371457464</v>
       </c>
       <c r="D89">
-        <v>0.008426403689349569</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.003297373014938951</v>
+      </c>
+      <c r="E89">
+        <v>-0.06351528120923042</v>
+      </c>
+      <c r="F89">
+        <v>0.01015862589862225</v>
+      </c>
+      <c r="G89">
+        <v>-0.05949631056429928</v>
+      </c>
+      <c r="H89">
+        <v>0.1279200330025817</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2282401468365784</v>
+        <v>0.2697015604758169</v>
       </c>
       <c r="C90">
-        <v>-0.2769827359066436</v>
+        <v>0.2173689468764414</v>
       </c>
       <c r="D90">
-        <v>-0.02076880349659498</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03477167142455034</v>
+      </c>
+      <c r="E90">
+        <v>-0.04972172959600009</v>
+      </c>
+      <c r="F90">
+        <v>-0.002787837827986452</v>
+      </c>
+      <c r="G90">
+        <v>0.05432410667774085</v>
+      </c>
+      <c r="H90">
+        <v>0.0333783232242595</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1701020280867857</v>
+        <v>0.13454533695745</v>
       </c>
       <c r="C91">
-        <v>0.1666651957570383</v>
+        <v>-0.1801545971801724</v>
       </c>
       <c r="D91">
-        <v>0.1303592134449601</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1195459617517131</v>
+      </c>
+      <c r="E91">
+        <v>-0.09772018699109486</v>
+      </c>
+      <c r="F91">
+        <v>-0.06401974572910223</v>
+      </c>
+      <c r="G91">
+        <v>-0.02866586074318781</v>
+      </c>
+      <c r="H91">
+        <v>-0.04416302586790469</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1952121740821404</v>
+        <v>0.2577352450806115</v>
       </c>
       <c r="C92">
-        <v>-0.2692926743451128</v>
+        <v>0.2402000491405304</v>
       </c>
       <c r="D92">
-        <v>-0.01180808106959959</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02883017665935889</v>
+      </c>
+      <c r="E92">
+        <v>-0.1105118966681829</v>
+      </c>
+      <c r="F92">
+        <v>-0.01494663819860773</v>
+      </c>
+      <c r="G92">
+        <v>-0.003798887389310201</v>
+      </c>
+      <c r="H92">
+        <v>0.04590442552582772</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2465233632176752</v>
+        <v>0.2840719077266316</v>
       </c>
       <c r="C93">
-        <v>-0.2900802519936315</v>
+        <v>0.2277074329884536</v>
       </c>
       <c r="D93">
-        <v>-0.02508284952118473</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.008459753271671039</v>
+      </c>
+      <c r="E93">
+        <v>0.01434003114485892</v>
+      </c>
+      <c r="F93">
+        <v>-0.03144264732766646</v>
+      </c>
+      <c r="G93">
+        <v>-0.01166182378084369</v>
+      </c>
+      <c r="H93">
+        <v>-0.000928786095388709</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3424566900399499</v>
+        <v>0.2806997378211742</v>
       </c>
       <c r="C94">
-        <v>0.2149538686041989</v>
+        <v>-0.2809085859771673</v>
       </c>
       <c r="D94">
-        <v>0.3537892577037647</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3840921729363004</v>
+      </c>
+      <c r="E94">
+        <v>-0.01288835395243785</v>
+      </c>
+      <c r="F94">
+        <v>0.05085539348298355</v>
+      </c>
+      <c r="G94">
+        <v>0.1953404833972976</v>
+      </c>
+      <c r="H94">
+        <v>0.2745048405976254</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07010760616876477</v>
+        <v>0.06245935642037759</v>
       </c>
       <c r="C95">
-        <v>0.08176380671086368</v>
+        <v>-0.09140123634596183</v>
       </c>
       <c r="D95">
-        <v>-0.1414326163214745</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1152945439321324</v>
+      </c>
+      <c r="E95">
+        <v>-0.2256694749847097</v>
+      </c>
+      <c r="F95">
+        <v>0.6954971268506497</v>
+      </c>
+      <c r="G95">
+        <v>-0.4693783738770126</v>
+      </c>
+      <c r="H95">
+        <v>0.3105118275059183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1.360600790627667e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-3.627493500050887e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0001213711829220466</v>
+      </c>
+      <c r="E97">
+        <v>-0.0002205401097150681</v>
+      </c>
+      <c r="F97">
+        <v>-0.0003753996074588918</v>
+      </c>
+      <c r="G97">
+        <v>0.0003566328371551747</v>
+      </c>
+      <c r="H97">
+        <v>-0.0001047337220602236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1730412966687941</v>
+        <v>0.1603728637919334</v>
       </c>
       <c r="C98">
-        <v>0.05725364263951722</v>
+        <v>-0.09538635087185598</v>
       </c>
       <c r="D98">
-        <v>-0.155564020244213</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.105784042593242</v>
+      </c>
+      <c r="E98">
+        <v>0.329761433078623</v>
+      </c>
+      <c r="F98">
+        <v>0.07576955444851501</v>
+      </c>
+      <c r="G98">
+        <v>-0.03347651466473082</v>
+      </c>
+      <c r="H98">
+        <v>-0.1400285255717739</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003142763833998379</v>
+        <v>0.005067448822428293</v>
       </c>
       <c r="C101">
-        <v>0.02166461956865404</v>
+        <v>-0.02632618809803702</v>
       </c>
       <c r="D101">
-        <v>-0.09228106798242428</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1009716230852674</v>
+      </c>
+      <c r="E101">
+        <v>-0.008711791765454883</v>
+      </c>
+      <c r="F101">
+        <v>-0.04538882803773669</v>
+      </c>
+      <c r="G101">
+        <v>9.980593348605356e-05</v>
+      </c>
+      <c r="H101">
+        <v>0.0833912176195933</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1219702176525977</v>
+        <v>0.08946220182522784</v>
       </c>
       <c r="C102">
-        <v>0.1311716779737186</v>
+        <v>-0.1340060339346516</v>
       </c>
       <c r="D102">
-        <v>0.09717516115257334</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.1012766526813145</v>
+      </c>
+      <c r="E102">
+        <v>-0.02568835106243509</v>
+      </c>
+      <c r="F102">
+        <v>0.03278703214987133</v>
+      </c>
+      <c r="G102">
+        <v>0.03392180527657754</v>
+      </c>
+      <c r="H102">
+        <v>-0.001132189017387495</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
